--- a/apessentials/src/main/resources/cip times.xlsx
+++ b/apessentials/src/main/resources/cip times.xlsx
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -575,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>125</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/apessentials/src/main/resources/cip times.xlsx
+++ b/apessentials/src/main/resources/cip times.xlsx
@@ -575,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
